--- a/4th-L2吳郭魚水質數據.xlsx
+++ b/4th-L2吳郭魚水質數據.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/millie/water monitoring/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <r>
       <rPr>
@@ -671,13 +682,63 @@
   <si>
     <t>0.024 ppm</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>110cm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>原池水</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/3池水</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2池水</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2池水七天後</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/3池水</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="楷體-繁 標準體"/>
+        <charset val="136"/>
+      </rPr>
+      <t>海大實驗室採樣檢測個數值：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="楷體-繁 標準體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">                                                </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要看：Chlorophyll a , 正磷酸 ,透明度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,6 +799,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="楷體-繁 標準體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="楷體-繁 標準體"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="楷體-繁 標準體"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -747,7 +827,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -757,16 +837,96 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,7 +934,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -788,6 +948,54 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1069,55 +1277,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:O11"/>
+  <dimension ref="B3:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="3"/>
-    <col min="11" max="11" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="13.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3"/>
+    <col min="5" max="5" width="13.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="13.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="3"/>
+    <col min="11" max="11" width="13.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.19921875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="7.796875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="14.796875" style="3" customWidth="1"/>
     <col min="15" max="15" width="14" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="3"/>
+    <col min="16" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="16" x14ac:dyDescent="0.15">
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="C4" s="8"/>
+      <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="H4" s="5" t="s">
+      <c r="F4" s="8"/>
+      <c r="H4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="5"/>
-      <c r="K4" s="5" t="s">
+      <c r="I4" s="8"/>
+      <c r="K4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="N4" s="5" t="s">
+      <c r="L4" s="8"/>
+      <c r="N4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="5"/>
+      <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" ht="16" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1149,7 +1374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" ht="18" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1174,14 +1399,14 @@
       <c r="L6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>35</v>
+      <c r="N6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" ht="18" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
@@ -1207,13 +1432,13 @@
         <v>29</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" ht="18" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1239,13 +1464,13 @@
         <v>30</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" ht="18" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
@@ -1271,13 +1496,13 @@
         <v>31</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" ht="18" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1303,27 +1528,93 @@
         <v>37</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" ht="16" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="N11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="18" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="5:10" ht="14" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="E19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="5:10" ht="17" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="5:10" ht="15" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="E19:H20"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
